--- a/biology/Botanique/Cavavin/Cavavin.xlsx
+++ b/biology/Botanique/Cavavin/Cavavin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cavavin Witradis est une enseigne française de magasins spécialisés dans la vente de vins, champagnes et spiritueux[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cavavin Witradis est une enseigne française de magasins spécialisés dans la vente de vins, champagnes et spiritueux.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cavavin est créé en 1985 par Michel Bourel et Pierre Guellier (Pierre Guellier, auparavant créateur de Monsieur Meuble). Elle repose à l'origine sur une centrale de référencement des vins. Les premiers magasins ouvrent dans l'ouest de la France à La Baule, Saint-Nazaire et Redon[4].
-En 1993, l'entreprise se dote d'une centrale d'achat[4] et sous l'impulsion de Michel Bourel se transforme en réseau de franchise dès 1996[réf. nécessaire].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cavavin est créé en 1985 par Michel Bourel et Pierre Guellier (Pierre Guellier, auparavant créateur de Monsieur Meuble). Elle repose à l'origine sur une centrale de référencement des vins. Les premiers magasins ouvrent dans l'ouest de la France à La Baule, Saint-Nazaire et Redon.
+En 1993, l'entreprise se dote d'une centrale d'achat et sous l'impulsion de Michel Bourel se transforme en réseau de franchise dès 1996[réf. nécessaire].
 En 2019, le groupe s'est installé dans une plateforme de plus de 4 000 m² et 500 m² de bureaux pour héberger près de 40 collaborateurs[réf. nécessaire].
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cavavin est l'un des réseaux leader dans le domaine des cavistes en France[5][source insuffisante]. Les magasins s'implantent en centre-ville, en périphérie des villes ou dans des centres commerciaux[5][source insuffisante]et visent aussi bien les grandes agglomérations que les petites villes de 12 000 habitants[6][source insuffisante]. L'enseigne possède plus de 160 magasins en France[7][source insuffisante]; elle est aussi implantée à l'étranger : à Sheffield et Hertford au Royaume-Uni, à Lausanne en Suisse, à Esch-Belval au Luxembourg, à Frameries en Belgique à Abidjan en Côte d'Ivoire[8][source insuffisante],[9][source insuffisante]à Brazzaville au Congo, à Casablanca au Maroc.[réf. nécessaire]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cavavin est l'un des réseaux leader dans le domaine des cavistes en France[source insuffisante]. Les magasins s'implantent en centre-ville, en périphérie des villes ou dans des centres commerciaux[source insuffisante]et visent aussi bien les grandes agglomérations que les petites villes de 12 000 habitants[source insuffisante]. L'enseigne possède plus de 160 magasins en France[source insuffisante]; elle est aussi implantée à l'étranger : à Sheffield et Hertford au Royaume-Uni, à Lausanne en Suisse, à Esch-Belval au Luxembourg, à Frameries en Belgique à Abidjan en Côte d'Ivoire[source insuffisante],[source insuffisante]à Brazzaville au Congo, à Casablanca au Maroc.[réf. nécessaire]
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2019, 160 magasins sont franchisés sous l'enseigne Cavavin[3][source détournée].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2019, 160 magasins sont franchisés sous l'enseigne Cavavin[source détournée].
 </t>
         </is>
       </c>
@@ -606,10 +624,12 @@
           <t>Données financières</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michel Bourel et sa famille détiennent 80 % des parts de l’entreprise via la holding, Pierre Guellier fils 5 % et à la famille Lurton, 15 %, grand nom des vins de Bordeaux[10].[source insuffisante]
-En 2016, le chiffre d'affaires de l’enseigne est de près de 52 millions d’euros (+2,5 %, à périmètre constant)[11].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michel Bourel et sa famille détiennent 80 % des parts de l’entreprise via la holding, Pierre Guellier fils 5 % et à la famille Lurton, 15 %, grand nom des vins de Bordeaux.[source insuffisante]
+En 2016, le chiffre d'affaires de l’enseigne est de près de 52 millions d’euros (+2,5 %, à périmètre constant).
 </t>
         </is>
       </c>
